--- a/자료/요구사항명세서.xlsx
+++ b/자료/요구사항명세서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>요구사항명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,14 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설문-순위형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얘는 할지말지 잘 모르겠음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체크박스로 분야 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(((사이트참조)))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,6 +306,22 @@
   </si>
   <si>
     <t>내가 선택한 문항에 대한 표시와, 총 참여인원, 각 문항에대한 참여인원을 볼 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객관식(단일선택)설문을 추가할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객관식(복수갯수 선택가능)설문을 추가할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분기형(선택에 따라 질문 추가)설문을 추가할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>척도형(척도갯수 선택 후 그에 따른 보기란 추가)설문을 추가할 수 있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,12 +364,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -477,16 +487,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -808,7 +818,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -819,25 +829,25 @@
       <c r="G1" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>3</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -923,7 +933,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -934,7 +944,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1040,7 +1050,7 @@
         <v>48</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1048,7 +1058,7 @@
         <v>49</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1056,7 +1066,7 @@
         <v>50</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1064,83 +1074,75 @@
         <v>51</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
